--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_656.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_656.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32848-d223966-Reviews-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>92</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-Residence-Inn-By-Marriott-Palmdale.h564597.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_656.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_656.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1351 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r580253630-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>32848</t>
+  </si>
+  <si>
+    <t>223966</t>
+  </si>
+  <si>
+    <t>580253630</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Staff are super friendly and helpful!</t>
+  </si>
+  <si>
+    <t>Room was clean and spacious.  The bathroom provided plenty of hot water in the morning.  The room provided amenities which were handy and comfortable to use.  The TV provided good reception and was clear to view.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Residence Inn Palmdale Lancaster, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Room was clean and spacious.  The bathroom provided plenty of hot water in the morning.  The room provided amenities which were handy and comfortable to use.  The TV provided good reception and was clear to view.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r580227831-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>580227831</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel - excellent service and friendly staff - The location is great for freeway access. Room was quite and very clean. Enjoyed the free breakfast buffet. Bed was comfortable. Heath club was well equiptedMoreShow less</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel - excellent service and friendly staff - The location is great for freeway access. Room was quite and very clean. Enjoyed the free breakfast buffet. Bed was comfortable. Heath club was well equiptedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r573837712-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>573837712</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Great for business trips</t>
+  </si>
+  <si>
+    <t>This is a nice hotel. Public areas and my room were very clean. The location is great for freeway access. Staff were very friendly. It was very quiet during my stay. Check in and check out went very quickly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Residence Inn Palmdale Lancaster, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>This is a nice hotel. Public areas and my room were very clean. The location is great for freeway access. Staff were very friendly. It was very quiet during my stay. Check in and check out went very quickly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r568271145-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>568271145</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>My first choice in Palmdale</t>
+  </si>
+  <si>
+    <t>Yes that's true, that's my first choice when on TDY. 1. Access to the gym is also available for free at Courtyard (opposite) where you can workout with weights.2. Pool and hot tub to relax after the workout3. Breakfast is well presented and is providing clean source of proteins and carbs. Beverages are in the average.4. In the evening you might enjoy 2 free drinks generously offered.5. The full kitchen provides a real alternative of you're on diet, if you need to complete your report in the night and still want to stick with your diet. Or you have your family and the kids need specific cook. 6. Shops are all around at foot distance. Great!7. Personnel are friendly and professional to assist you with any questions you may have.8. Room super clean. Yes!Definitely I suggest to book there for a superior experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Yes that's true, that's my first choice when on TDY. 1. Access to the gym is also available for free at Courtyard (opposite) where you can workout with weights.2. Pool and hot tub to relax after the workout3. Breakfast is well presented and is providing clean source of proteins and carbs. Beverages are in the average.4. In the evening you might enjoy 2 free drinks generously offered.5. The full kitchen provides a real alternative of you're on diet, if you need to complete your report in the night and still want to stick with your diet. Or you have your family and the kids need specific cook. 6. Shops are all around at foot distance. Great!7. Personnel are friendly and professional to assist you with any questions you may have.8. Room super clean. Yes!Definitely I suggest to book there for a superior experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r568143221-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>568143221</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Last Minute Stay</t>
+  </si>
+  <si>
+    <t>We had to make a last minute decison to stay at this location. It was a great decision. The Staff was very friendly and helpful. They took the time to ensure all our needs were met. The facility was clean and easy to find.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had to make a last minute decison to stay at this location. It was a great decision. The Staff was very friendly and helpful. They took the time to ensure all our needs were met. The facility was clean and easy to find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r567760461-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>567760461</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Good breakfast, clean rooms and excellent services</t>
+  </si>
+  <si>
+    <t>Single bedroom room, clean with 32" TV in the living room and bedroom.  Stove, Refrigerator were provided in the kitchen. Plates pots and pans were also provided.  Reading/computer desk and a small dining table.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Single bedroom room, clean with 32" TV in the living room and bedroom.  Stove, Refrigerator were provided in the kitchen. Plates pots and pans were also provided.  Reading/computer desk and a small dining table.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r557248244-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>557248244</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Comfortable </t>
+  </si>
+  <si>
+    <t>Had the pleasure of spending several stays recently at this hotel. The rooms are very spacious, clean and comfortable. Having the kitchen is very useful for extended stays, although the complimentary light dinners in the lounge are quite good. The staff are very helpful and friendly. The gym is small but sufficient for a light workout, followed by a satisfying complimentary breakfast. I have future stays planned here and certainly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Residence Inn Palmdale Lancaster, responded to this reviewResponded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Had the pleasure of spending several stays recently at this hotel. The rooms are very spacious, clean and comfortable. Having the kitchen is very useful for extended stays, although the complimentary light dinners in the lounge are quite good. The staff are very helpful and friendly. The gym is small but sufficient for a light workout, followed by a satisfying complimentary breakfast. I have future stays planned here and certainly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r556588762-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>556588762</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>New Best Hotel</t>
+  </si>
+  <si>
+    <t>Business Traveler stayed 5 days. Check-in was fast and courteous. Andrew and Christina went the extra yard to explain nearby POI's, calming my anxieties.  Room was spacious and exceptionally clean.  Kitchenette had all utensils, clean and sorted. Hot showers with adjustable shower head. King size bed with extra pillows was perfect prescription for a long day. Healthy choices available for my breakfast. Never had to wait to use printer or scanner. Security of hotel and parking area calmed any fears to my personal vehicle. My next business trip in Palmdale, CA. will be from the Residence Inn, hands down! -LGMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Business Traveler stayed 5 days. Check-in was fast and courteous. Andrew and Christina went the extra yard to explain nearby POI's, calming my anxieties.  Room was spacious and exceptionally clean.  Kitchenette had all utensils, clean and sorted. Hot showers with adjustable shower head. King size bed with extra pillows was perfect prescription for a long day. Healthy choices available for my breakfast. Never had to wait to use printer or scanner. Security of hotel and parking area calmed any fears to my personal vehicle. My next business trip in Palmdale, CA. will be from the Residence Inn, hands down! -LGMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r554259492-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>554259492</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>This is my favorite hotel in the Palmdale area: great location; reasonable price; friendly employees; great breakfast.  If I have left anything out that you desire, this hotel probably has it anyway.  I generally stay at a Marriott family hotel, particularly ones with free breakfast.  If you stay at a Marriott, you always know that you are getting a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Residence Inn Palmdale Lancaster, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>This is my favorite hotel in the Palmdale area: great location; reasonable price; friendly employees; great breakfast.  If I have left anything out that you desire, this hotel probably has it anyway.  I generally stay at a Marriott family hotel, particularly ones with free breakfast.  If you stay at a Marriott, you always know that you are getting a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r553069629-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>553069629</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>A lot of space for a Good price</t>
+  </si>
+  <si>
+    <t>When I check in the staff at the front counter were so friendly and helpful and answer all my questions. The suits have a lot of space and I like that has the separate rooms and each one has their own bathroom, also a kitchen big plus. Indoor pool I like that because I can take a swim even if is cold outside. My family and I were happy to have stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Residence Inn Palmdale Lancaster, responded to this reviewResponded January 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2018</t>
+  </si>
+  <si>
+    <t>When I check in the staff at the front counter were so friendly and helpful and answer all my questions. The suits have a lot of space and I like that has the separate rooms and each one has their own bathroom, also a kitchen big plus. Indoor pool I like that because I can take a swim even if is cold outside. My family and I were happy to have stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r551525416-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>551525416</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Great for traveling families</t>
+  </si>
+  <si>
+    <t>We stayed here twice in a 2-bedroom, 2-bathroom suite.  It is an ideal stopping point on our road trips between Northern California and Big Bear.  We have a toddler and an infant, and found it ideal as a home away from home for our children.  On our second stay, we did experience a bit of stomping from the room directly above us.  For those particularly sensitive to that kind of noise, I would recommend requesting a top floor room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here twice in a 2-bedroom, 2-bathroom suite.  It is an ideal stopping point on our road trips between Northern California and Big Bear.  We have a toddler and an infant, and found it ideal as a home away from home for our children.  On our second stay, we did experience a bit of stomping from the room directly above us.  For those particularly sensitive to that kind of noise, I would recommend requesting a top floor room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r551271478-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>551271478</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Great hotel !</t>
+  </si>
+  <si>
+    <t>The property was clean and well maintained. The suite was clean and has plenty of space.The staff was friendly and welcoming from the moment you walked in. The breakfast was good. The front desk the night I checked in was especially great!. I will definitely stay here again and recommend it to my coworkers and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Residence Inn Palmdale Lancaster, responded to this reviewResponded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2018</t>
+  </si>
+  <si>
+    <t>The property was clean and well maintained. The suite was clean and has plenty of space.The staff was friendly and welcoming from the moment you walked in. The breakfast was good. The front desk the night I checked in was especially great!. I will definitely stay here again and recommend it to my coworkers and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r545065010-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>545065010</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Everything A Traveler Needs</t>
+  </si>
+  <si>
+    <t>I travel on business at least once a month. I research hotel reviews carefully before choosing a hotel. Safety, cleanliness, convenience, good lighting and ample outlets are absolute necessities. This hotel met and surpassed my needs.  The young lady greeted me warmly upon arrival and even gave me a cute little welcome bag!I love having my own kitchenette because that allows me to bring my own food and stay on my food plan. The kitchen was fully stocked and very clean.I do enjoy going out for at least one meal while traveling and was very happy to find so many great restaurants within walking distance.The room felt like a small apartment. The bedroom is totally separate from the livingroom/kitchen area. This meant when a friend I went to college with came to see me I was able to entertain her in the living area. Very cool!I will definitely stay here again and recommend it to my coworkers and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Residence Inn Palmdale Lancaster, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>I travel on business at least once a month. I research hotel reviews carefully before choosing a hotel. Safety, cleanliness, convenience, good lighting and ample outlets are absolute necessities. This hotel met and surpassed my needs.  The young lady greeted me warmly upon arrival and even gave me a cute little welcome bag!I love having my own kitchenette because that allows me to bring my own food and stay on my food plan. The kitchen was fully stocked and very clean.I do enjoy going out for at least one meal while traveling and was very happy to find so many great restaurants within walking distance.The room felt like a small apartment. The bedroom is totally separate from the livingroom/kitchen area. This meant when a friend I went to college with came to see me I was able to entertain her in the living area. Very cool!I will definitely stay here again and recommend it to my coworkers and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r542550352-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>542550352</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Great service and exceptional room!</t>
+  </si>
+  <si>
+    <t>Let me start by saying that as soon as we stepped foot in the lobby we were treated with genuine smiles! It made us feel very welcomed and excited to stay here. I was in town for business and brought my 8 month pregnant wife and she absolutely loved the cleanliness and comfort of the room and bed. We asked for more pillows and within minutes we had some. We will always be Marriott customers! Loved my stay!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Let me start by saying that as soon as we stepped foot in the lobby we were treated with genuine smiles! It made us feel very welcomed and excited to stay here. I was in town for business and brought my 8 month pregnant wife and she absolutely loved the cleanliness and comfort of the room and bed. We asked for more pillows and within minutes we had some. We will always be Marriott customers! Loved my stay!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r542316929-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>542316929</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>"Great Night's Stay, and amazing customer service!"</t>
+  </si>
+  <si>
+    <t>The property was clean and well maintained. The staff was friendly and welcoming from the moment you walked in. The breakfast was good also, and the rooms was nothing less than great! The front desk the night I checked in was especially great! I stayed here twice so far and I can say I would definitely stay here again and recommend this hotel to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Residence Inn Palmdale Lancaster, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>The property was clean and well maintained. The staff was friendly and welcoming from the moment you walked in. The breakfast was good also, and the rooms was nothing less than great! The front desk the night I checked in was especially great! I stayed here twice so far and I can say I would definitely stay here again and recommend this hotel to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r539440866-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>539440866</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Outstanding customer service!</t>
+  </si>
+  <si>
+    <t>The property is fine; clean and neat, if a little old.  But what truly stands out is the customer service... everyone went above and beyond. Brenda, the night auditor checked us in, allowed me to modify my reservation (last minute) and found a different room to suit my needs.  I would definitely go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Residence Inn Palmdale Lancaster, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>The property is fine; clean and neat, if a little old.  But what truly stands out is the customer service... everyone went above and beyond. Brenda, the night auditor checked us in, allowed me to modify my reservation (last minute) and found a different room to suit my needs.  I would definitely go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r537504098-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>537504098</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Softball Showcase Team </t>
+  </si>
+  <si>
+    <t>My Softball team had a great stay over the weekend. They all loved the Free Breakfast and we utilized the BBQ area. Great for teams to stay. Great service as well. Look forward to coming back to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Residence Inn Palmdale Lancaster, responded to this reviewResponded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2017</t>
+  </si>
+  <si>
+    <t>My Softball team had a great stay over the weekend. They all loved the Free Breakfast and we utilized the BBQ area. Great for teams to stay. Great service as well. Look forward to coming back to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r536301780-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>536301780</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>My go to place in the Palmdale area</t>
+  </si>
+  <si>
+    <t>Thank you again Marriott for a great stay. I had business for one day in this area.  It has been over three years since I have been here, but it still has great customer service. The suite were still impeccable in cleanliness; it was quiet, and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Residence Inn Palmdale Lancaster, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Thank you again Marriott for a great stay. I had business for one day in this area.  It has been over three years since I have been here, but it still has great customer service. The suite were still impeccable in cleanliness; it was quiet, and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r526767693-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>526767693</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Residence Inn Palmdale</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in room 303 for business September 5 to September 21, 2017. For the most part my stay was pretty good. I did notice a few things. The carpets in the hallway were outdated that they either need a deep cleaning or they need to get new carpets. The outsides of my windows were very dirty, not sure when they last cleaned them. Some electric outlets did not work. They need new desk chairs as the one I had would slide down pretty quick with me sitting in it. It's hard to type when you are low to the ground. The bed was very comfy and it was quiet at night that I was able to sleep without any disturbances. There is free wifi. The breakfast was ok, I wished they would have had more bacon as having sausage day after day after day gets old after week 1. The orange juice tasted more like water than pure orange juice. I did say something but the OJ still did not taste like true OJ.  The parking gets packed real easy especially at night and I noticed that the Courtyard Marriott hotel next door had their guests use the Residence Inn parking lot. I know they are both Marriotts but if I am staying at a hotel I hope to find parking for my hotel. The hotel does have social hour Monday through Wednesday. They need to...I stayed at this hotel in room 303 for business September 5 to September 21, 2017. For the most part my stay was pretty good. I did notice a few things. The carpets in the hallway were outdated that they either need a deep cleaning or they need to get new carpets. The outsides of my windows were very dirty, not sure when they last cleaned them. Some electric outlets did not work. They need new desk chairs as the one I had would slide down pretty quick with me sitting in it. It's hard to type when you are low to the ground. The bed was very comfy and it was quiet at night that I was able to sleep without any disturbances. There is free wifi. The breakfast was ok, I wished they would have had more bacon as having sausage day after day after day gets old after week 1. The orange juice tasted more like water than pure orange juice. I did say something but the OJ still did not taste like true OJ.  The parking gets packed real easy especially at night and I noticed that the Courtyard Marriott hotel next door had their guests use the Residence Inn parking lot. I know they are both Marriotts but if I am staying at a hotel I hope to find parking for my hotel. The hotel does have social hour Monday through Wednesday. They need to have different food trucks, not the same one over and over so I just took advantage of the restaurants nearby. The pool and hot tub were fantastic as I had them to myself. I also noticed the hotel did not have any recycle bins as someone who recycles this was sad to see. The hotel also allows pets.  There is a gas station next door and the Antelope Mall is not that far away. There is an Aldi's up the street but there is a Von's like 10 minutes away. The hotel is right next to highway CA14 so easy access. Northrop Grumman, Lockheed Martin and Boeing are 10 minutes away. All the staff were very helpful which was very appreciative especially the housekeeping ladies.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>shandra g, Director of Sales at Residence Inn Palmdale Lancaster, responded to this reviewResponded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in room 303 for business September 5 to September 21, 2017. For the most part my stay was pretty good. I did notice a few things. The carpets in the hallway were outdated that they either need a deep cleaning or they need to get new carpets. The outsides of my windows were very dirty, not sure when they last cleaned them. Some electric outlets did not work. They need new desk chairs as the one I had would slide down pretty quick with me sitting in it. It's hard to type when you are low to the ground. The bed was very comfy and it was quiet at night that I was able to sleep without any disturbances. There is free wifi. The breakfast was ok, I wished they would have had more bacon as having sausage day after day after day gets old after week 1. The orange juice tasted more like water than pure orange juice. I did say something but the OJ still did not taste like true OJ.  The parking gets packed real easy especially at night and I noticed that the Courtyard Marriott hotel next door had their guests use the Residence Inn parking lot. I know they are both Marriotts but if I am staying at a hotel I hope to find parking for my hotel. The hotel does have social hour Monday through Wednesday. They need to...I stayed at this hotel in room 303 for business September 5 to September 21, 2017. For the most part my stay was pretty good. I did notice a few things. The carpets in the hallway were outdated that they either need a deep cleaning or they need to get new carpets. The outsides of my windows were very dirty, not sure when they last cleaned them. Some electric outlets did not work. They need new desk chairs as the one I had would slide down pretty quick with me sitting in it. It's hard to type when you are low to the ground. The bed was very comfy and it was quiet at night that I was able to sleep without any disturbances. There is free wifi. The breakfast was ok, I wished they would have had more bacon as having sausage day after day after day gets old after week 1. The orange juice tasted more like water than pure orange juice. I did say something but the OJ still did not taste like true OJ.  The parking gets packed real easy especially at night and I noticed that the Courtyard Marriott hotel next door had their guests use the Residence Inn parking lot. I know they are both Marriotts but if I am staying at a hotel I hope to find parking for my hotel. The hotel does have social hour Monday through Wednesday. They need to have different food trucks, not the same one over and over so I just took advantage of the restaurants nearby. The pool and hot tub were fantastic as I had them to myself. I also noticed the hotel did not have any recycle bins as someone who recycles this was sad to see. The hotel also allows pets.  There is a gas station next door and the Antelope Mall is not that far away. There is an Aldi's up the street but there is a Von's like 10 minutes away. The hotel is right next to highway CA14 so easy access. Northrop Grumman, Lockheed Martin and Boeing are 10 minutes away. All the staff were very helpful which was very appreciative especially the housekeeping ladies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r518863848-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>518863848</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Much appreciated Customer Service</t>
+  </si>
+  <si>
+    <t>I have actually never stayed at this hotel, however, I did have an opportunity to ask for assistance with a personal issue we were having relating to a reservation we had in June 2017. Ms. Kristina Castro was very helpful and we would not hesitate to stay here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded September 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2017</t>
+  </si>
+  <si>
+    <t>I have actually never stayed at this hotel, however, I did have an opportunity to ask for assistance with a personal issue we were having relating to a reservation we had in June 2017. Ms. Kristina Castro was very helpful and we would not hesitate to stay here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r512787584-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>512787584</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Average Stay, Needs Updating</t>
+  </si>
+  <si>
+    <t>I stayed here for a week and here are some things I found. Pros: Good Location (close to the mall, and aerospace companies)Staff friendlyCons: Really outdated and had a dirty feel (They need new furniture, carpet and paint)Limited Parking (If you leave after 7:30pm don't expect to find any parking when you come back) They also need to fix one of the exit doors that makes a very loud slam even if you try and close it gently. I wouldn't come back until they renovated the hotel. The Embassy Suites or even the TownePlace Suites in Lancaster are far nicer for the same or cheaper cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for a week and here are some things I found. Pros: Good Location (close to the mall, and aerospace companies)Staff friendlyCons: Really outdated and had a dirty feel (They need new furniture, carpet and paint)Limited Parking (If you leave after 7:30pm don't expect to find any parking when you come back) They also need to fix one of the exit doors that makes a very loud slam even if you try and close it gently. I wouldn't come back until they renovated the hotel. The Embassy Suites or even the TownePlace Suites in Lancaster are far nicer for the same or cheaper cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r473265362-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>473265362</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Business Traveler friendly staff!</t>
+  </si>
+  <si>
+    <t>Great place to stay when during a long term business trip. Evening staff very helpful. Sales personal work with my employer to get the right accommodations for my stay. Can say enough about the friendly staff. Super location to food and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Great place to stay when during a long term business trip. Evening staff very helpful. Sales personal work with my employer to get the right accommodations for my stay. Can say enough about the friendly staff. Super location to food and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r467898329-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>467898329</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Fantastic, friendly staff!</t>
+  </si>
+  <si>
+    <t>I stayed long term at the Residence Inn in Palmdale. The staff there is simply sublime - very friendly, efficient, and proactive. After staying here and raving about staying here, I've talked with others who stay here as their local holiday stay. People who live in the area come here to enjoy the complimentary breakfasts, complimentary Mon-Wed evening snacks, and indoor pool (for swimming any day of the year!). Highly recommend allowing yourself to get pampered at this desert jewel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I stayed long term at the Residence Inn in Palmdale. The staff there is simply sublime - very friendly, efficient, and proactive. After staying here and raving about staying here, I've talked with others who stay here as their local holiday stay. People who live in the area come here to enjoy the complimentary breakfasts, complimentary Mon-Wed evening snacks, and indoor pool (for swimming any day of the year!). Highly recommend allowing yourself to get pampered at this desert jewel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r452703344-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>452703344</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Very Comfortable</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here and the staff was great. i had a small issue with my credit card and the staff was very patient with me while I was on the phone with the credit card company. Big spacious rooms with kitchen amenities and I almost felt like I was home! The breakfast was goodMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here and the staff was great. i had a small issue with my credit card and the staff was very patient with me while I was on the phone with the credit card company. Big spacious rooms with kitchen amenities and I almost felt like I was home! The breakfast was goodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r433817029-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>433817029</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>A very comfortable stay.</t>
+  </si>
+  <si>
+    <t>Attended an event in Lancaster. While returning late in the night Google map did confuse the directions and sent one more exist to the South.4 Adults. We stayed in a 2 bedroom suite. Really liked it. Will stay again next time around.Did not use gym or swimming pool.Morning breakfast has enough vegetarian variety and seating is spacious, did not feel crowded. They could be little more organized, among 4 days we were there, for two days the oatmeal was still being cooked, even at 9:00 A.M.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Attended an event in Lancaster. While returning late in the night Google map did confuse the directions and sent one more exist to the South.4 Adults. We stayed in a 2 bedroom suite. Really liked it. Will stay again next time around.Did not use gym or swimming pool.Morning breakfast has enough vegetarian variety and seating is spacious, did not feel crowded. They could be little more organized, among 4 days we were there, for two days the oatmeal was still being cooked, even at 9:00 A.M.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r433239964-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>433239964</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>The little things count!</t>
+  </si>
+  <si>
+    <t>I am a corporate traveler, so i see "the norm". What made this hotel nice was the extra care that Mago gave during the breakfast. I love oatmeal, It was always fresh! One day she was making fresh smoothies which i have never seen!    There seems to always be a water shortage in california, having said that i appreciated the fact that the maid named "meche" did not utilize an entire cycle of the dish washer for 1 coffee pot, coffee cup , and some utensils! The fact that ALL maids, in all hotels have used an entire wash cycle for an item or 2, has always bothered me! I know this sounds trivial but imagine how many hotel rooms are in california use a complete dishwasher cycle everyday, in addition to the electricity, in a state that has a water and electricity shortage?? Overall a very good hotel to stay at! Everyone professional and accommodating! Rooms spacious and you don't feel like your in a hotel room!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a corporate traveler, so i see "the norm". What made this hotel nice was the extra care that Mago gave during the breakfast. I love oatmeal, It was always fresh! One day she was making fresh smoothies which i have never seen!    There seems to always be a water shortage in california, having said that i appreciated the fact that the maid named "meche" did not utilize an entire cycle of the dish washer for 1 coffee pot, coffee cup , and some utensils! The fact that ALL maids, in all hotels have used an entire wash cycle for an item or 2, has always bothered me! I know this sounds trivial but imagine how many hotel rooms are in california use a complete dishwasher cycle everyday, in addition to the electricity, in a state that has a water and electricity shortage?? Overall a very good hotel to stay at! Everyone professional and accommodating! Rooms spacious and you don't feel like your in a hotel room!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r427451494-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>427451494</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel, makes you feel confortable!</t>
+  </si>
+  <si>
+    <t>All the staff in the hotel treat you like a family member, they know you by your name and not only like any other guest, specially the front desk personnel and the kitchen staff.The rooms are very confortable full equipped with all you need for a long stay, very clean, not only the rooms, all the hotel in general.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>All the staff in the hotel treat you like a family member, they know you by your name and not only like any other guest, specially the front desk personnel and the kitchen staff.The rooms are very confortable full equipped with all you need for a long stay, very clean, not only the rooms, all the hotel in general.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r408498291-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>408498291</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>This was a quiet, family friendly, pet friendly place to stay. The outdoor sporys court was a hit with my 7 year old who always travels with a badketball. The breakfast area was bright and inviting. The bed was comfy. The kitchen with a full size fridge with an ice maker was awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>This was a quiet, family friendly, pet friendly place to stay. The outdoor sporys court was a hit with my 7 year old who always travels with a badketball. The breakfast area was bright and inviting. The bed was comfy. The kitchen with a full size fridge with an ice maker was awesome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r404698275-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>404698275</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>The hotel is a quality clean, and great staff everyone is very pleasant and they ensure your comfort the whole time you are here. I would recommend this hotel to anyone. It is in a nice neighborhood with many places to eat and shop in the area it is approx. 1.5 hours from LAX airport. So when in Palmdale area stay at the residence innMoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is a quality clean, and great staff everyone is very pleasant and they ensure your comfort the whole time you are here. I would recommend this hotel to anyone. It is in a nice neighborhood with many places to eat and shop in the area it is approx. 1.5 hours from LAX airport. So when in Palmdale area stay at the residence innMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r382630898-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>382630898</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>This facility kept up with my needs.  Ms. Margo greeted me with kindness every morning, Ms Karen kept me safe during the nights, Mr. Clarence helped me with my toiletries, Ms. Delia greeted my evenings after a hard days work, &amp; Ms. Crystal managed the place well.  Oh I can't forget, Ms. Jasmine who was a good sport all week long with my whole work crew.  I'm looking forward to my next visit, my home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Randy M, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>This facility kept up with my needs.  Ms. Margo greeted me with kindness every morning, Ms Karen kept me safe during the nights, Mr. Clarence helped me with my toiletries, Ms. Delia greeted my evenings after a hard days work, &amp; Ms. Crystal managed the place well.  Oh I can't forget, Ms. Jasmine who was a good sport all week long with my whole work crew.  I'm looking forward to my next visit, my home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r368286651-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>368286651</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Two Night Funeral Trip</t>
+  </si>
+  <si>
+    <t>Drove a close friend to Palmdale from Vegas for an unexpected funeral.  On a tight budget and due to the circumstances, we were extended a kind and generous discount by Cystal Smith, the general manager.  Front desk staff were extremely courteous and helpful, most notably Christina.  Although our room looked a bit worn, it was very clean and everything (including free wifi) worked quite well.  And, the mattress and pillows were most comfortable, affording a good night's rest.  The location was perfect for our needs, close to shopping and restaurants aplenty.  I would definitely stay here again and recommend to others.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Crystal S, Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Drove a close friend to Palmdale from Vegas for an unexpected funeral.  On a tight budget and due to the circumstances, we were extended a kind and generous discount by Cystal Smith, the general manager.  Front desk staff were extremely courteous and helpful, most notably Christina.  Although our room looked a bit worn, it was very clean and everything (including free wifi) worked quite well.  And, the mattress and pillows were most comfortable, affording a good night's rest.  The location was perfect for our needs, close to shopping and restaurants aplenty.  I would definitely stay here again and recommend to others.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r363352741-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>363352741</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Arcaic Hotel !!!</t>
+  </si>
+  <si>
+    <t>This hotel needs to be updated to Residence Inn Marriott standards!!!Out of date appliances and broken sofa bed.Very unhappy with the condition of my room.Excellent Staff though!!!Prime location!!!Close to good restaurants!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Crystal S, Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>This hotel needs to be updated to Residence Inn Marriott standards!!!Out of date appliances and broken sofa bed.Very unhappy with the condition of my room.Excellent Staff though!!!Prime location!!!Close to good restaurants!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r361768729-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>361768729</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>What a relief!!!!</t>
+  </si>
+  <si>
+    <t>Our stay here was great everyone treated us so well every time you came through the door everybody was smiling and greeted you and made you feel so comfortable and happy I would recommend this place to everyone the food is great the rooms are clean and nice spacious and they accepted our two dogs we will be staying here for 3 to 4 weeks couldn't have been put up in a better place thanks Marriott for everything and thank you staff you're all the best RM 117MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Crystal S, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Our stay here was great everyone treated us so well every time you came through the door everybody was smiling and greeted you and made you feel so comfortable and happy I would recommend this place to everyone the food is great the rooms are clean and nice spacious and they accepted our two dogs we will be staying here for 3 to 4 weeks couldn't have been put up in a better place thanks Marriott for everything and thank you staff you're all the best RM 117More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r324139642-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>324139642</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Overnight business trip</t>
+  </si>
+  <si>
+    <t>Stress free overnight stay. For Palmdale, this is upscale and reasonably priced. This Residence Inn has a great location near several restaurants and Numero Uno Pizza. Quick and easy check in. I unfortunately forgot my swim suit but a peek at the pool revealed a nice indoor pool that I really wanted to dive into. The facilities are clean and the staff was great. No problems with the room. The Front Desk is friendly and responsive. Desk provided advice on local restaurants which really helped.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Crystal S, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Stress free overnight stay. For Palmdale, this is upscale and reasonably priced. This Residence Inn has a great location near several restaurants and Numero Uno Pizza. Quick and easy check in. I unfortunately forgot my swim suit but a peek at the pool revealed a nice indoor pool that I really wanted to dive into. The facilities are clean and the staff was great. No problems with the room. The Front Desk is friendly and responsive. Desk provided advice on local restaurants which really helped.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r314524832-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>314524832</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>The best guest of everyday</t>
+  </si>
+  <si>
+    <t>I stayed at this location for about 4 months. The staff is fantastic willing to accommodate any needs that you may have they serve breakfast every morning which is amazing. Dinner is served Monday Tuesday and Wednesday which is also pretty good overall I had a fantastic stay the location is perfect it's only 3 hour drive from Las Vegas an hour or so north of Los Angeles and a good six hour drive to San Francisco. There are also plenty of restaurants nearby if you need to stop and eat the staff is very knowledgeable about the area and will be more than willing to provide you any information needed. This will be a good stop for an extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed at this location for about 4 months. The staff is fantastic willing to accommodate any needs that you may have they serve breakfast every morning which is amazing. Dinner is served Monday Tuesday and Wednesday which is also pretty good overall I had a fantastic stay the location is perfect it's only 3 hour drive from Las Vegas an hour or so north of Los Angeles and a good six hour drive to San Francisco. There are also plenty of restaurants nearby if you need to stop and eat the staff is very knowledgeable about the area and will be more than willing to provide you any information needed. This will be a good stop for an extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r304524465-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>304524465</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights in a 2 bed suite with kitchen facilities. The rooms were clean and the free breakfast was the typical residence inn spread. I tried to use the free PC to print some museum tickets but the PC broke down, the manager Crystal kindly offered to help me print it with her office printer, all the other members of staff were just as helpful which reflects her good customer service focused leadershipMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights in a 2 bed suite with kitchen facilities. The rooms were clean and the free breakfast was the typical residence inn spread. I tried to use the free PC to print some museum tickets but the PC broke down, the manager Crystal kindly offered to help me print it with her office printer, all the other members of staff were just as helpful which reflects her good customer service focused leadershipMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r290874536-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>290874536</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Short stay</t>
+  </si>
+  <si>
+    <t>This hotel for the most part was very good.  They do have a very good breakfast.  The rooms are ample and it was good to have the stove, micro and refrigerator.  There were several of the family stayed there while attending a wedding in that area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Crystal S, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>This hotel for the most part was very good.  They do have a very good breakfast.  The rooms are ample and it was good to have the stove, micro and refrigerator.  There were several of the family stayed there while attending a wedding in that area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r286916503-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>286916503</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Great Long Term Hotel</t>
+  </si>
+  <si>
+    <t>While this hotel is in no way high end, the staff was incredibly kind and always tried to help out. It is very convenient to many Palmdale and Lancaster locations. I cannot say enough good things about the staff from the front desk to the people cleaning the rooms. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Crystal S, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>While this hotel is in no way high end, the staff was incredibly kind and always tried to help out. It is very convenient to many Palmdale and Lancaster locations. I cannot say enough good things about the staff from the front desk to the people cleaning the rooms. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r284499376-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>284499376</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Nice people, rooms need updating</t>
+  </si>
+  <si>
+    <t>We have stayed in quite a few Residence Inns.  We like the larger-sized rooms.  This one was very middle-of-the-road, with nothing terribly wrong but nothing outstanding as well.  Our room was clean but some dishes were missing and the cupboards need to be replaced.  The bed was fine, but the fitted bed pad and sheet kept popping off like they had shrunk, and I DON'T like to fight with my bed.  Room service kept our room tidy and did a good job.  Breakfast was typical...I was really ready to eat elsewhere after three days.  More variety would be nice.  But the food was hot and they kept the area clean.  We did not go into the pool or get to enjoy the afternoon snacks.  The staff was polite and friendly in every instance.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Crystal S, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed in quite a few Residence Inns.  We like the larger-sized rooms.  This one was very middle-of-the-road, with nothing terribly wrong but nothing outstanding as well.  Our room was clean but some dishes were missing and the cupboards need to be replaced.  The bed was fine, but the fitted bed pad and sheet kept popping off like they had shrunk, and I DON'T like to fight with my bed.  Room service kept our room tidy and did a good job.  Breakfast was typical...I was really ready to eat elsewhere after three days.  More variety would be nice.  But the food was hot and they kept the area clean.  We did not go into the pool or get to enjoy the afternoon snacks.  The staff was polite and friendly in every instance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r245029687-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>245029687</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Didn't want to leave. Great stay.</t>
+  </si>
+  <si>
+    <t>We stay here once a year when we visit our children.  We live in Florida and feel so comfortable at this hotel. Everything you need is here including a great laundry.  I wish I could remember the lady's name in the breakfast room because she was so nice and her breakfast burritos were the best.  Every breakfast was so delicious. Miss you Residence Inn.  Loved staying there. So Homey and the Christmas decorations were lovely.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Moises A, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded February 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2015</t>
+  </si>
+  <si>
+    <t>We stay here once a year when we visit our children.  We live in Florida and feel so comfortable at this hotel. Everything you need is here including a great laundry.  I wish I could remember the lady's name in the breakfast room because she was so nice and her breakfast burritos were the best.  Every breakfast was so delicious. Miss you Residence Inn.  Loved staying there. So Homey and the Christmas decorations were lovely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r222183678-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>222183678</t>
+  </si>
+  <si>
+    <t>08/16/2014</t>
+  </si>
+  <si>
+    <t>Tertible service hotel in Palmdale</t>
+  </si>
+  <si>
+    <t>I arrived at 7pm and the front desk reception told me that I did call to cancel my reservation which I didn't.   This wasn't the first time Marriot hotels chain do this to me. Because the hotel overbooked and they can cancel any reservation any time they want. It's unacceptable to me. I will never ever make reservation with Residence Inn and Marriott hotels whenever I travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Moises A, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded August 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2014</t>
+  </si>
+  <si>
+    <t>I arrived at 7pm and the front desk reception told me that I did call to cancel my reservation which I didn't.   This wasn't the first time Marriot hotels chain do this to me. Because the hotel overbooked and they can cancel any reservation any time they want. It's unacceptable to me. I will never ever make reservation with Residence Inn and Marriott hotels whenever I travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r215843352-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>215843352</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>went for a Seminar</t>
+  </si>
+  <si>
+    <t>Did not stay in the hotel but the Place is really nice and Brand new.Can not rate the rooms - the people were very nice.The seminar rating would not reflect the NICE hotel so I'll just say I would gladly stay there.The furnishings are top notch. I  gave it a 5 star but since I did not stay in a roomJust from the lobby and meeting roomMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Did not stay in the hotel but the Place is really nice and Brand new.Can not rate the rooms - the people were very nice.The seminar rating would not reflect the NICE hotel so I'll just say I would gladly stay there.The furnishings are top notch. I  gave it a 5 star but since I did not stay in a roomJust from the lobby and meeting roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r194054436-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>194054436</t>
+  </si>
+  <si>
+    <t>02/14/2014</t>
+  </si>
+  <si>
+    <t>Good location for business travel to the Palmdale area.</t>
+  </si>
+  <si>
+    <t>I stayed two nights at the Residence Inn by Marriott in Palmdale while on business to the area.  It was convenient to shopping and dining options and right off the main road, although it was still a bit of a haul to get to NASA Dryden, I mean, Armstrong Flight Research Center (but then, any hotel is going to be a haul to get there!).
+I thought the Residence was a good choice.  Clean and comfortable, which are the most important items for me.  The lobby area is very nice.  Check in was quick ad easy.  The staff at the desk was friendly and helpful.  Funny story is that the gentlemen taking care of the check-in was very happy to give me an upgrade to a two-bedroom suite.  "Dude, I'm by myself, why do I need two bedrooms!"  But it was a nice room regardless that is was more than I needed.
+I was very pleased with the room.  As mentioned, it was a two-bedroom suite with a living room and kitchenette connecting the bedrooms.  There were two bathrooms as well, so it would have been very easy to share the space with another person.  The suite was well appointed (all the normal amenities plus the kitchen seemed to have everything you would need for a long stay).  There was a flat screen TV in each space (each bedroom and the living area).  The bathrooms were a nice size; plenty...I stayed two nights at the Residence Inn by Marriott in Palmdale while on business to the area.  It was convenient to shopping and dining options and right off the main road, although it was still a bit of a haul to get to NASA Dryden, I mean, Armstrong Flight Research Center (but then, any hotel is going to be a haul to get there!).I thought the Residence was a good choice.  Clean and comfortable, which are the most important items for me.  The lobby area is very nice.  Check in was quick ad easy.  The staff at the desk was friendly and helpful.  Funny story is that the gentlemen taking care of the check-in was very happy to give me an upgrade to a two-bedroom suite.  "Dude, I'm by myself, why do I need two bedrooms!"  But it was a nice room regardless that is was more than I needed.I was very pleased with the room.  As mentioned, it was a two-bedroom suite with a living room and kitchenette connecting the bedrooms.  There were two bathrooms as well, so it would have been very easy to share the space with another person.  The suite was well appointed (all the normal amenities plus the kitchen seemed to have everything you would need for a long stay).  There was a flat screen TV in each space (each bedroom and the living area).  The bathrooms were a nice size; plenty of room to move about.  There was also free wifi in the room, which is vital these days.The only issue during the stay was that there was a fair amount of noise from the rooms above me during the early evening.  Fortunately, I was exhausted and was able to sleep through the disturbance.  But it could be annoying for others.I took advantage of the fitness center at the hotel.  It is small with two treadmills, one elliptical machine and a reclining bike.  One of the treadmills was out of order during my stay, but fortunately for me I was up really early and able to meet the rush.  There was not a business center (not that I was looking for one) but I did see a computer in the lobby for printing boarding passes.The complimentary breakfast was good.  Not an extensive variety, but enough to start your day.  I also tried the evening social on our first night; the meatball subs were very good.Overall, it was a good stay.  I will certainly consider staying at the Residence Inn should my travels bring me back to the Palmdale area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Moises A, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded April 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2014</t>
+  </si>
+  <si>
+    <t>I stayed two nights at the Residence Inn by Marriott in Palmdale while on business to the area.  It was convenient to shopping and dining options and right off the main road, although it was still a bit of a haul to get to NASA Dryden, I mean, Armstrong Flight Research Center (but then, any hotel is going to be a haul to get there!).
+I thought the Residence was a good choice.  Clean and comfortable, which are the most important items for me.  The lobby area is very nice.  Check in was quick ad easy.  The staff at the desk was friendly and helpful.  Funny story is that the gentlemen taking care of the check-in was very happy to give me an upgrade to a two-bedroom suite.  "Dude, I'm by myself, why do I need two bedrooms!"  But it was a nice room regardless that is was more than I needed.
+I was very pleased with the room.  As mentioned, it was a two-bedroom suite with a living room and kitchenette connecting the bedrooms.  There were two bathrooms as well, so it would have been very easy to share the space with another person.  The suite was well appointed (all the normal amenities plus the kitchen seemed to have everything you would need for a long stay).  There was a flat screen TV in each space (each bedroom and the living area).  The bathrooms were a nice size; plenty...I stayed two nights at the Residence Inn by Marriott in Palmdale while on business to the area.  It was convenient to shopping and dining options and right off the main road, although it was still a bit of a haul to get to NASA Dryden, I mean, Armstrong Flight Research Center (but then, any hotel is going to be a haul to get there!).I thought the Residence was a good choice.  Clean and comfortable, which are the most important items for me.  The lobby area is very nice.  Check in was quick ad easy.  The staff at the desk was friendly and helpful.  Funny story is that the gentlemen taking care of the check-in was very happy to give me an upgrade to a two-bedroom suite.  "Dude, I'm by myself, why do I need two bedrooms!"  But it was a nice room regardless that is was more than I needed.I was very pleased with the room.  As mentioned, it was a two-bedroom suite with a living room and kitchenette connecting the bedrooms.  There were two bathrooms as well, so it would have been very easy to share the space with another person.  The suite was well appointed (all the normal amenities plus the kitchen seemed to have everything you would need for a long stay).  There was a flat screen TV in each space (each bedroom and the living area).  The bathrooms were a nice size; plenty of room to move about.  There was also free wifi in the room, which is vital these days.The only issue during the stay was that there was a fair amount of noise from the rooms above me during the early evening.  Fortunately, I was exhausted and was able to sleep through the disturbance.  But it could be annoying for others.I took advantage of the fitness center at the hotel.  It is small with two treadmills, one elliptical machine and a reclining bike.  One of the treadmills was out of order during my stay, but fortunately for me I was up really early and able to meet the rush.  There was not a business center (not that I was looking for one) but I did see a computer in the lobby for printing boarding passes.The complimentary breakfast was good.  Not an extensive variety, but enough to start your day.  I also tried the evening social on our first night; the meatball subs were very good.Overall, it was a good stay.  I will certainly consider staying at the Residence Inn should my travels bring me back to the Palmdale area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r185330924-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>185330924</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>great for night shift workers</t>
+  </si>
+  <si>
+    <t>I was on assignment working the late shift and slalom during the day. I let the staff know I didn't want any service before 2pm and they complied. the rooms are nice and dark and mostly quiet. sometimes a military jet flies over which can be loud but only during the day. the shower is powerful and has a massage setting. the kitchen has all you need and there are plenty of stores near by to stock up on groceries. Good wireless Internet, hdtv reception, no oders, comfy bed. The only downside is the lack of parking when coming back early in the morning at the end of my shift. most nights I got a spot but one night I had to park at the hotel next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>Moises A, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded December 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2013</t>
+  </si>
+  <si>
+    <t>I was on assignment working the late shift and slalom during the day. I let the staff know I didn't want any service before 2pm and they complied. the rooms are nice and dark and mostly quiet. sometimes a military jet flies over which can be loud but only during the day. the shower is powerful and has a massage setting. the kitchen has all you need and there are plenty of stores near by to stock up on groceries. Good wireless Internet, hdtv reception, no oders, comfy bed. The only downside is the lack of parking when coming back early in the morning at the end of my shift. most nights I got a spot but one night I had to park at the hotel next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r182365919-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>182365919</t>
+  </si>
+  <si>
+    <t>10/25/2013</t>
+  </si>
+  <si>
+    <t>Everything you expect from Residence Inn</t>
+  </si>
+  <si>
+    <t>I've never been letdown by a Residence Inn, and this one is no different.  I stayed for 8 days and felt as much at home as possible from any major hotel chain that I've stayed at (except for the very high-end hotels).  Rooms were large and well-maintained, staff was extremely friendly and accommodating, breakfasts and weekday hor d'oeuvres were TERRIFIC, pool/hot tub were top-notch, and location was great (as far as restaurants, supermarkets, and evening entertainment were concerned).  Trying to think of anything negative...nope - great stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Moises A, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded November 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2013</t>
+  </si>
+  <si>
+    <t>I've never been letdown by a Residence Inn, and this one is no different.  I stayed for 8 days and felt as much at home as possible from any major hotel chain that I've stayed at (except for the very high-end hotels).  Rooms were large and well-maintained, staff was extremely friendly and accommodating, breakfasts and weekday hor d'oeuvres were TERRIFIC, pool/hot tub were top-notch, and location was great (as far as restaurants, supermarkets, and evening entertainment were concerned).  Trying to think of anything negative...nope - great stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r151137124-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>151137124</t>
+  </si>
+  <si>
+    <t>01/31/2013</t>
+  </si>
+  <si>
+    <t>Home-away-from-Home</t>
+  </si>
+  <si>
+    <t>My family and I stayed at Residence Inn for 5 months due to a flood in our house.  I actually didn't mind staying there under the circumstances.  All the staff was great and the food was wonderful.  I especially never tired of the awesome breakfast; some of my favorites were the waffles, breakfast burritos, egg mcmuffins, and the blueberry yogurt.  The kitchen staff is the best, and they will do everything they can to make you happy.  The front desk staff will also do everything to accommodate you, and they were simply awesome.  There is a nice basketball court outside and pool inside.  It is located right in the middle of many restaurants and strip malls.  There is even a Hometown Buffet right behind it.  It is very accessible to the freeway (1/2 block away).  Thanks Moises and my money is on the 49ers for the Super Bowl....ChrisMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Moises A, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded February 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2013</t>
+  </si>
+  <si>
+    <t>My family and I stayed at Residence Inn for 5 months due to a flood in our house.  I actually didn't mind staying there under the circumstances.  All the staff was great and the food was wonderful.  I especially never tired of the awesome breakfast; some of my favorites were the waffles, breakfast burritos, egg mcmuffins, and the blueberry yogurt.  The kitchen staff is the best, and they will do everything they can to make you happy.  The front desk staff will also do everything to accommodate you, and they were simply awesome.  There is a nice basketball court outside and pool inside.  It is located right in the middle of many restaurants and strip malls.  There is even a Hometown Buffet right behind it.  It is very accessible to the freeway (1/2 block away).  Thanks Moises and my money is on the 49ers for the Super Bowl....ChrisMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r147093850-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>147093850</t>
+  </si>
+  <si>
+    <t>12/09/2012</t>
+  </si>
+  <si>
+    <t>The nicest staff I've ever experienced!</t>
+  </si>
+  <si>
+    <t>This residence inn is not fancy like the ones in big cities. But, I wouldn't stay anywhere else if given the choice. The entire staff is friendly, always greeting me with a smile in the morning and again in the evening. Most marriott staff are friendly and professional, but the palmdale staff (housekeeping, front desk, food services) go above and beyond.MoreShow less</t>
+  </si>
+  <si>
+    <t>Moises A, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded January 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2013</t>
+  </si>
+  <si>
+    <t>This residence inn is not fancy like the ones in big cities. But, I wouldn't stay anywhere else if given the choice. The entire staff is friendly, always greeting me with a smile in the morning and again in the evening. Most marriott staff are friendly and professional, but the palmdale staff (housekeeping, front desk, food services) go above and beyond.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r145849014-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>145849014</t>
+  </si>
+  <si>
+    <t>11/20/2012</t>
+  </si>
+  <si>
+    <t>One of the best!</t>
+  </si>
+  <si>
+    <t>Waiting for our short sale to finish, we had to find a place to stay that would cater to pets and be comfortable and affordable. Wow! What a great motel! The staff was super friendly, professional, and helpful. The housekeeping staff was awesome! The motel is close to the mall and lots of shopping, yet tucked away where it's very quiet. There is a well-kept area that you can take your dog outside with clean-up supplies. The kitchenette is very functional. Loved our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Moises A, General Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded December 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2012</t>
+  </si>
+  <si>
+    <t>Waiting for our short sale to finish, we had to find a place to stay that would cater to pets and be comfortable and affordable. Wow! What a great motel! The staff was super friendly, professional, and helpful. The housekeeping staff was awesome! The motel is close to the mall and lots of shopping, yet tucked away where it's very quiet. There is a well-kept area that you can take your dog outside with clean-up supplies. The kitchenette is very functional. Loved our stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r103646617-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>103646617</t>
+  </si>
+  <si>
+    <t>04/11/2011</t>
+  </si>
+  <si>
+    <t>Really nice room, very attractive hotel</t>
+  </si>
+  <si>
+    <t>The room was actually a suite, or at least a single large room with a kitchen.  The hotel was pleasant. The staff was helpful.  The complimentary breakfast included hot foods, and was quite enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>Zachary B, Manager at Residence Inn Palmdale Lancaster, responded to this reviewResponded November 28, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2011</t>
+  </si>
+  <si>
+    <t>The room was actually a suite, or at least a single large room with a kitchen.  The hotel was pleasant. The staff was helpful.  The complimentary breakfast included hot foods, and was quite enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r73070886-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>73070886</t>
+  </si>
+  <si>
+    <t>07/30/2010</t>
+  </si>
+  <si>
+    <t>Extremely friendly customer service</t>
+  </si>
+  <si>
+    <t>Great staff, comfortable rooms, pet friendly, great hot buffet breakfasts and clean pool and whirlpool spa.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>Great staff, comfortable rooms, pet friendly, great hot buffet breakfasts and clean pool and whirlpool spa.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r69039167-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>69039167</t>
+  </si>
+  <si>
+    <t>06/28/2010</t>
+  </si>
+  <si>
+    <t>Stranded in Palmdale</t>
+  </si>
+  <si>
+    <t>Stuck there due to snow.  Treated us great! Hotel was clean, comfortable, helpful, I'd stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>Stuck there due to snow.  Treated us great! Hotel was clean, comfortable, helpful, I'd stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r16264641-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>16264641</t>
+  </si>
+  <si>
+    <t>05/20/2008</t>
+  </si>
+  <si>
+    <t>Don't stay if you need your wireless connection</t>
+  </si>
+  <si>
+    <t>I booked a week at the Residence Inn because it was close to work.  Also, the reviews were very favorable.  The first day, I returned to my room 20 minutes before the cleaning crew went home only to find that it had not been serviced.  I was gone for over 10 hours; all I wanted was to kick off my shoes and relax but I could not.  I called the front desk &amp; they said they would take care of it.  I spent 30 minutes in the lobby waiting to get back into my room.  During the wait, I visited Happy Hour in the lobby which was high fat, full sugar.  I was surprised that there were no diet sodas included with the Coke and Sprite.  After some celery sticks I returned to my room which was finally made and attempted to get on to my computer to work.  The advertised wireless was not working so I called Tech Support who spent 45 minutes asking me was the computer on, was the power saver on, was it plugged into the wall, and lots more irrelevant questions that had nothing to do with accessing the wireless network.  I finally got off the phone &amp; called the front desk.  They had all the access points reinitialized so I turn off my computer &amp; turned it back on to try again.  After another 15 minutes, I gave up and asked the front desk...I booked a week at the Residence Inn because it was close to work.  Also, the reviews were very favorable.  The first day, I returned to my room 20 minutes before the cleaning crew went home only to find that it had not been serviced.  I was gone for over 10 hours; all I wanted was to kick off my shoes and relax but I could not.  I called the front desk &amp; they said they would take care of it.  I spent 30 minutes in the lobby waiting to get back into my room.  During the wait, I visited Happy Hour in the lobby which was high fat, full sugar.  I was surprised that there were no diet sodas included with the Coke and Sprite.  After some celery sticks I returned to my room which was finally made and attempted to get on to my computer to work.  The advertised wireless was not working so I called Tech Support who spent 45 minutes asking me was the computer on, was the power saver on, was it plugged into the wall, and lots more irrelevant questions that had nothing to do with accessing the wireless network.  I finally got off the phone &amp; called the front desk.  They had all the access points reinitialized so I turn off my computer &amp; turned it back on to try again.  After another 15 minutes, I gave up and asked the front desk for an Ethernet connection.  Wireless does NOT work in the hotel but they will supply the bridge for the Ethernet.  Although the front desk was friendly, the service was lacking.  Breakfast is so so.  Happy Hour abysmal and the workout area is standard hotel.  I will not return here if at all possible.  I found much better service, working wireless, better breakfast &amp; Happy Hour at the Holiday Inn on Palmdale Blvd.  Although the room is half the size with only a small frig, the food is much better at the Holiday Inn; there’s room service and they have a complimentary membership at 24 Hour Fitness if you want more than the hotel's workout area.  VERY VERY disappointed!  Makes me wonder if I want to continue with my Marriott Rewards Program.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>I booked a week at the Residence Inn because it was close to work.  Also, the reviews were very favorable.  The first day, I returned to my room 20 minutes before the cleaning crew went home only to find that it had not been serviced.  I was gone for over 10 hours; all I wanted was to kick off my shoes and relax but I could not.  I called the front desk &amp; they said they would take care of it.  I spent 30 minutes in the lobby waiting to get back into my room.  During the wait, I visited Happy Hour in the lobby which was high fat, full sugar.  I was surprised that there were no diet sodas included with the Coke and Sprite.  After some celery sticks I returned to my room which was finally made and attempted to get on to my computer to work.  The advertised wireless was not working so I called Tech Support who spent 45 minutes asking me was the computer on, was the power saver on, was it plugged into the wall, and lots more irrelevant questions that had nothing to do with accessing the wireless network.  I finally got off the phone &amp; called the front desk.  They had all the access points reinitialized so I turn off my computer &amp; turned it back on to try again.  After another 15 minutes, I gave up and asked the front desk...I booked a week at the Residence Inn because it was close to work.  Also, the reviews were very favorable.  The first day, I returned to my room 20 minutes before the cleaning crew went home only to find that it had not been serviced.  I was gone for over 10 hours; all I wanted was to kick off my shoes and relax but I could not.  I called the front desk &amp; they said they would take care of it.  I spent 30 minutes in the lobby waiting to get back into my room.  During the wait, I visited Happy Hour in the lobby which was high fat, full sugar.  I was surprised that there were no diet sodas included with the Coke and Sprite.  After some celery sticks I returned to my room which was finally made and attempted to get on to my computer to work.  The advertised wireless was not working so I called Tech Support who spent 45 minutes asking me was the computer on, was the power saver on, was it plugged into the wall, and lots more irrelevant questions that had nothing to do with accessing the wireless network.  I finally got off the phone &amp; called the front desk.  They had all the access points reinitialized so I turn off my computer &amp; turned it back on to try again.  After another 15 minutes, I gave up and asked the front desk for an Ethernet connection.  Wireless does NOT work in the hotel but they will supply the bridge for the Ethernet.  Although the front desk was friendly, the service was lacking.  Breakfast is so so.  Happy Hour abysmal and the workout area is standard hotel.  I will not return here if at all possible.  I found much better service, working wireless, better breakfast &amp; Happy Hour at the Holiday Inn on Palmdale Blvd.  Although the room is half the size with only a small frig, the food is much better at the Holiday Inn; there’s room service and they have a complimentary membership at 24 Hour Fitness if you want more than the hotel's workout area.  VERY VERY disappointed!  Makes me wonder if I want to continue with my Marriott Rewards Program.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r14375617-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>14375617</t>
+  </si>
+  <si>
+    <t>03/18/2008</t>
+  </si>
+  <si>
+    <t>Outstanding Service</t>
+  </si>
+  <si>
+    <t>We booked a one night stay at the Residence Inn in Palmdale.   We were greeted by friendly and efficient staff the minute we walked in the door.  We had asked for a quiet location and they made sure that we got such a room and even upgraded us from a one bedroom suite to a two bedroom suite.  Our room was quiet.  Foam pillows were on the bed, just as requested.   The complimentary breakfast the next morning was good and the staff kept the food well stocked.   We will definitely stay here again on our next trip to Palmdale.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>We booked a one night stay at the Residence Inn in Palmdale.   We were greeted by friendly and efficient staff the minute we walked in the door.  We had asked for a quiet location and they made sure that we got such a room and even upgraded us from a one bedroom suite to a two bedroom suite.  Our room was quiet.  Foam pillows were on the bed, just as requested.   The complimentary breakfast the next morning was good and the staff kept the food well stocked.   We will definitely stay here again on our next trip to Palmdale.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r7010600-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>7010600</t>
+  </si>
+  <si>
+    <t>03/09/2007</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I am a traveling salesman always on the run. I pass through Palmdale at least twice a month. I usually stay at the Holiday inn but this time i saw the Residence Inn from the freeway and decided to give it a shot. I was amazed by the interior of the hotel. Very clean and comfortable. I stayed in one of their One Bedroom suites. For about 20 dollars more then I usually spend, I got what i thought was incredible. My room had a full kitchen, full sized refrigerator and a LIVING ROOM. It was like a small furnished apartment!!! I threw my shoes off and relaxed on the couch watching TV. It was a great night sleep. When i checked in I noticed the Marriott level customer service. It was great, they were polite, friendly and treated me like family. Pricing is adequate and the rooms are beautiful.  I just booked my stay for next week online. I will never stay anywhere else in palmdale. One thing though. There is no room service there. A little dissapointing. Overall GREAT HOTEL.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>I am a traveling salesman always on the run. I pass through Palmdale at least twice a month. I usually stay at the Holiday inn but this time i saw the Residence Inn from the freeway and decided to give it a shot. I was amazed by the interior of the hotel. Very clean and comfortable. I stayed in one of their One Bedroom suites. For about 20 dollars more then I usually spend, I got what i thought was incredible. My room had a full kitchen, full sized refrigerator and a LIVING ROOM. It was like a small furnished apartment!!! I threw my shoes off and relaxed on the couch watching TV. It was a great night sleep. When i checked in I noticed the Marriott level customer service. It was great, they were polite, friendly and treated me like family. Pricing is adequate and the rooms are beautiful.  I just booked my stay for next week online. I will never stay anywhere else in palmdale. One thing though. There is no room service there. A little dissapointing. Overall GREAT HOTEL.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1993,3562 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" t="s">
+        <v>167</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>168</v>
+      </c>
+      <c r="X16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>219</v>
+      </c>
+      <c r="X22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>228</v>
+      </c>
+      <c r="X23" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s">
+        <v>235</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>236</v>
+      </c>
+      <c r="O24" t="s">
+        <v>124</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>243</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>244</v>
+      </c>
+      <c r="X25" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>124</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>253</v>
+      </c>
+      <c r="X26" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>253</v>
+      </c>
+      <c r="X27" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>267</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>268</v>
+      </c>
+      <c r="X28" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>276</v>
+      </c>
+      <c r="O29" t="s">
+        <v>124</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>277</v>
+      </c>
+      <c r="X29" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>284</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>277</v>
+      </c>
+      <c r="X30" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>291</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>292</v>
+      </c>
+      <c r="X31" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>300</v>
+      </c>
+      <c r="O32" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>301</v>
+      </c>
+      <c r="X32" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>305</v>
+      </c>
+      <c r="J33" t="s">
+        <v>306</v>
+      </c>
+      <c r="K33" t="s">
+        <v>307</v>
+      </c>
+      <c r="L33" t="s">
+        <v>308</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>300</v>
+      </c>
+      <c r="O33" t="s">
+        <v>124</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>309</v>
+      </c>
+      <c r="X33" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>312</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>313</v>
+      </c>
+      <c r="J34" t="s">
+        <v>314</v>
+      </c>
+      <c r="K34" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>317</v>
+      </c>
+      <c r="O34" t="s">
+        <v>124</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>318</v>
+      </c>
+      <c r="X34" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>322</v>
+      </c>
+      <c r="J35" t="s">
+        <v>323</v>
+      </c>
+      <c r="K35" t="s">
+        <v>324</v>
+      </c>
+      <c r="L35" t="s">
+        <v>325</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>326</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>327</v>
+      </c>
+      <c r="X35" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>331</v>
+      </c>
+      <c r="J36" t="s">
+        <v>332</v>
+      </c>
+      <c r="K36" t="s">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s">
+        <v>334</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>335</v>
+      </c>
+      <c r="O36" t="s">
+        <v>336</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>327</v>
+      </c>
+      <c r="X36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>338</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>339</v>
+      </c>
+      <c r="J37" t="s">
+        <v>340</v>
+      </c>
+      <c r="K37" t="s">
+        <v>341</v>
+      </c>
+      <c r="L37" t="s">
+        <v>342</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>343</v>
+      </c>
+      <c r="O37" t="s">
+        <v>124</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>327</v>
+      </c>
+      <c r="X37" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>346</v>
+      </c>
+      <c r="J38" t="s">
+        <v>347</v>
+      </c>
+      <c r="K38" t="s">
+        <v>348</v>
+      </c>
+      <c r="L38" t="s">
+        <v>349</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>335</v>
+      </c>
+      <c r="O38" t="s">
+        <v>124</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>350</v>
+      </c>
+      <c r="X38" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>353</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J39" t="s">
+        <v>355</v>
+      </c>
+      <c r="K39" t="s">
+        <v>356</v>
+      </c>
+      <c r="L39" t="s">
+        <v>357</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>358</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>359</v>
+      </c>
+      <c r="X39" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="J40" t="s">
+        <v>364</v>
+      </c>
+      <c r="K40" t="s">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s">
+        <v>366</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>367</v>
+      </c>
+      <c r="O40" t="s">
+        <v>124</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>368</v>
+      </c>
+      <c r="X40" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>371</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>372</v>
+      </c>
+      <c r="J41" t="s">
+        <v>373</v>
+      </c>
+      <c r="K41" t="s">
+        <v>374</v>
+      </c>
+      <c r="L41" t="s">
+        <v>375</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>376</v>
+      </c>
+      <c r="O41" t="s">
+        <v>124</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>377</v>
+      </c>
+      <c r="X41" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>380</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>381</v>
+      </c>
+      <c r="J42" t="s">
+        <v>382</v>
+      </c>
+      <c r="K42" t="s">
+        <v>383</v>
+      </c>
+      <c r="L42" t="s">
+        <v>384</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>385</v>
+      </c>
+      <c r="X42" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>389</v>
+      </c>
+      <c r="J43" t="s">
+        <v>390</v>
+      </c>
+      <c r="K43" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43" t="s">
+        <v>392</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>393</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>385</v>
+      </c>
+      <c r="X43" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>395</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>396</v>
+      </c>
+      <c r="J44" t="s">
+        <v>397</v>
+      </c>
+      <c r="K44" t="s">
+        <v>398</v>
+      </c>
+      <c r="L44" t="s">
+        <v>399</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>400</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>401</v>
+      </c>
+      <c r="X44" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>404</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>405</v>
+      </c>
+      <c r="J45" t="s">
+        <v>406</v>
+      </c>
+      <c r="K45" t="s">
+        <v>407</v>
+      </c>
+      <c r="L45" t="s">
+        <v>408</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>409</v>
+      </c>
+      <c r="X45" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>412</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>413</v>
+      </c>
+      <c r="J46" t="s">
+        <v>414</v>
+      </c>
+      <c r="K46" t="s">
+        <v>415</v>
+      </c>
+      <c r="L46" t="s">
+        <v>416</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>417</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>418</v>
+      </c>
+      <c r="X46" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>421</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>422</v>
+      </c>
+      <c r="J47" t="s">
+        <v>423</v>
+      </c>
+      <c r="K47" t="s">
+        <v>424</v>
+      </c>
+      <c r="L47" t="s">
+        <v>425</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>426</v>
+      </c>
+      <c r="O47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>427</v>
+      </c>
+      <c r="X47" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>430</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>431</v>
+      </c>
+      <c r="J48" t="s">
+        <v>432</v>
+      </c>
+      <c r="K48" t="s">
+        <v>433</v>
+      </c>
+      <c r="L48" t="s">
+        <v>434</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>435</v>
+      </c>
+      <c r="X48" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>438</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>439</v>
+      </c>
+      <c r="J49" t="s">
+        <v>440</v>
+      </c>
+      <c r="K49" t="s">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s">
+        <v>442</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>443</v>
+      </c>
+      <c r="O49" t="s">
+        <v>124</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>444</v>
+      </c>
+      <c r="X49" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>447</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>448</v>
+      </c>
+      <c r="J50" t="s">
+        <v>449</v>
+      </c>
+      <c r="K50" t="s">
+        <v>450</v>
+      </c>
+      <c r="L50" t="s">
+        <v>451</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>452</v>
+      </c>
+      <c r="O50" t="s">
+        <v>115</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>453</v>
+      </c>
+      <c r="X50" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>456</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>457</v>
+      </c>
+      <c r="J51" t="s">
+        <v>458</v>
+      </c>
+      <c r="K51" t="s">
+        <v>459</v>
+      </c>
+      <c r="L51" t="s">
+        <v>460</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>461</v>
+      </c>
+      <c r="O51" t="s">
+        <v>124</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>453</v>
+      </c>
+      <c r="X51" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>463</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>464</v>
+      </c>
+      <c r="J52" t="s">
+        <v>465</v>
+      </c>
+      <c r="K52" t="s">
+        <v>466</v>
+      </c>
+      <c r="L52" t="s">
+        <v>467</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>468</v>
+      </c>
+      <c r="O52" t="s">
+        <v>115</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>453</v>
+      </c>
+      <c r="X52" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>470</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>471</v>
+      </c>
+      <c r="J53" t="s">
+        <v>472</v>
+      </c>
+      <c r="K53" t="s">
+        <v>473</v>
+      </c>
+      <c r="L53" t="s">
+        <v>474</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>475</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>453</v>
+      </c>
+      <c r="X53" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>477</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>478</v>
+      </c>
+      <c r="J54" t="s">
+        <v>479</v>
+      </c>
+      <c r="K54" t="s">
+        <v>480</v>
+      </c>
+      <c r="L54" t="s">
+        <v>481</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>482</v>
+      </c>
+      <c r="O54" t="s">
+        <v>115</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>453</v>
+      </c>
+      <c r="X54" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41641</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>484</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>485</v>
+      </c>
+      <c r="J55" t="s">
+        <v>486</v>
+      </c>
+      <c r="K55" t="s">
+        <v>487</v>
+      </c>
+      <c r="L55" t="s">
+        <v>488</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>489</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>453</v>
+      </c>
+      <c r="X55" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>490</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_656.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_656.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="545">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jackbenkert</t>
+  </si>
+  <si>
     <t>07/09/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Room was clean and spacious.  The bathroom provided plenty of hot water in the morning.  The room provided amenities which were handy and comfortable to use.  The TV provided good reception and was clear to view.More</t>
   </si>
   <si>
+    <t>RJH511604</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r580227831-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Very Nice Hotel - excellent service and friendly staff - The location is great for freeway access. Room was quite and very clean. Enjoyed the free breakfast buffet. Bed was comfortable. Heath club was well equiptedMore</t>
   </si>
   <si>
+    <t>Tina E C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r573837712-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>This is a nice hotel. Public areas and my room were very clean. The location is great for freeway access. Staff were very friendly. It was very quiet during my stay. Check in and check out went very quickly.More</t>
   </si>
   <si>
+    <t>Acampras</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r568271145-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>Yes that's true, that's my first choice when on TDY. 1. Access to the gym is also available for free at Courtyard (opposite) where you can workout with weights.2. Pool and hot tub to relax after the workout3. Breakfast is well presented and is providing clean source of proteins and carbs. Beverages are in the average.4. In the evening you might enjoy 2 free drinks generously offered.5. The full kitchen provides a real alternative of you're on diet, if you need to complete your report in the night and still want to stick with your diet. Or you have your family and the kids need specific cook. 6. Shops are all around at foot distance. Great!7. Personnel are friendly and professional to assist you with any questions you may have.8. Room super clean. Yes!Definitely I suggest to book there for a superior experience. More</t>
   </si>
   <si>
+    <t>465brian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r568143221-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>We had to make a last minute decison to stay at this location. It was a great decision. The Staff was very friendly and helpful. They took the time to ensure all our needs were met. The facility was clean and easy to find.More</t>
   </si>
   <si>
+    <t>michaeliadiasor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r567760461-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>Single bedroom room, clean with 32" TV in the living room and bedroom.  Stove, Refrigerator were provided in the kitchen. Plates pots and pans were also provided.  Reading/computer desk and a small dining table.More</t>
   </si>
   <si>
+    <t>David W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r557248244-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>Had the pleasure of spending several stays recently at this hotel. The rooms are very spacious, clean and comfortable. Having the kitchen is very useful for extended stays, although the complimentary light dinners in the lounge are quite good. The staff are very helpful and friendly. The gym is small but sufficient for a light workout, followed by a satisfying complimentary breakfast. I have future stays planned here and certainly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Lawrence G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r556588762-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t>Business Traveler stayed 5 days. Check-in was fast and courteous. Andrew and Christina went the extra yard to explain nearby POI's, calming my anxieties.  Room was spacious and exceptionally clean.  Kitchenette had all utensils, clean and sorted. Hot showers with adjustable shower head. King size bed with extra pillows was perfect prescription for a long day. Healthy choices available for my breakfast. Never had to wait to use printer or scanner. Security of hotel and parking area calmed any fears to my personal vehicle. My next business trip in Palmdale, CA. will be from the Residence Inn, hands down! -LGMore</t>
   </si>
   <si>
+    <t>GypsyNanasDaughter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r554259492-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>This is my favorite hotel in the Palmdale area: great location; reasonable price; friendly employees; great breakfast.  If I have left anything out that you desire, this hotel probably has it anyway.  I generally stay at a Marriott family hotel, particularly ones with free breakfast.  If you stay at a Marriott, you always know that you are getting a good value.More</t>
   </si>
   <si>
+    <t>Jerremi P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r553069629-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -402,6 +432,9 @@
     <t>When I check in the staff at the front counter were so friendly and helpful and answer all my questions. The suits have a lot of space and I like that has the separate rooms and each one has their own bathroom, also a kitchen big plus. Indoor pool I like that because I can take a swim even if is cold outside. My family and I were happy to have stay here.More</t>
   </si>
   <si>
+    <t>Michelle W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r551525416-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -426,6 +459,9 @@
     <t>We stayed here twice in a 2-bedroom, 2-bathroom suite.  It is an ideal stopping point on our road trips between Northern California and Big Bear.  We have a toddler and an infant, and found it ideal as a home away from home for our children.  On our second stay, we did experience a bit of stomping from the room directly above us.  For those particularly sensitive to that kind of noise, I would recommend requesting a top floor room.More</t>
   </si>
   <si>
+    <t>rajneeshtiwari</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r551271478-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -450,6 +486,9 @@
     <t>The property was clean and well maintained. The suite was clean and has plenty of space.The staff was friendly and welcoming from the moment you walked in. The breakfast was good. The front desk the night I checked in was especially great!. I will definitely stay here again and recommend it to my coworkers and friends.More</t>
   </si>
   <si>
+    <t>Virginia M N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r545065010-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -477,6 +516,9 @@
     <t>I travel on business at least once a month. I research hotel reviews carefully before choosing a hotel. Safety, cleanliness, convenience, good lighting and ample outlets are absolute necessities. This hotel met and surpassed my needs.  The young lady greeted me warmly upon arrival and even gave me a cute little welcome bag!I love having my own kitchenette because that allows me to bring my own food and stay on my food plan. The kitchen was fully stocked and very clean.I do enjoy going out for at least one meal while traveling and was very happy to find so many great restaurants within walking distance.The room felt like a small apartment. The bedroom is totally separate from the livingroom/kitchen area. This meant when a friend I went to college with came to see me I was able to entertain her in the living area. Very cool!I will definitely stay here again and recommend it to my coworkers and friends.More</t>
   </si>
   <si>
+    <t>Luisltx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r542550352-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -501,6 +543,9 @@
     <t>Let me start by saying that as soon as we stepped foot in the lobby we were treated with genuine smiles! It made us feel very welcomed and excited to stay here. I was in town for business and brought my 8 month pregnant wife and she absolutely loved the cleanliness and comfort of the room and bed. We asked for more pillows and within minutes we had some. We will always be Marriott customers! Loved my stay!  More</t>
   </si>
   <si>
+    <t>Robyn W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r542316929-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -531,6 +576,9 @@
     <t>The property was clean and well maintained. The staff was friendly and welcoming from the moment you walked in. The breakfast was good also, and the rooms was nothing less than great! The front desk the night I checked in was especially great! I stayed here twice so far and I can say I would definitely stay here again and recommend this hotel to others.More</t>
   </si>
   <si>
+    <t>Erin L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r539440866-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -555,6 +603,9 @@
     <t>The property is fine; clean and neat, if a little old.  But what truly stands out is the customer service... everyone went above and beyond. Brenda, the night auditor checked us in, allowed me to modify my reservation (last minute) and found a different room to suit my needs.  I would definitely go back.More</t>
   </si>
   <si>
+    <t>Jon N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r537504098-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -579,6 +630,9 @@
     <t>My Softball team had a great stay over the weekend. They all loved the Free Breakfast and we utilized the BBQ area. Great for teams to stay. Great service as well. Look forward to coming back to stay. More</t>
   </si>
   <si>
+    <t>findsandra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r536301780-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -603,6 +657,9 @@
     <t>Thank you again Marriott for a great stay. I had business for one day in this area.  It has been over three years since I have been here, but it still has great customer service. The suite were still impeccable in cleanliness; it was quiet, and comfortable.More</t>
   </si>
   <si>
+    <t>lcjt01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r526767693-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -630,6 +687,9 @@
     <t>I stayed at this hotel in room 303 for business September 5 to September 21, 2017. For the most part my stay was pretty good. I did notice a few things. The carpets in the hallway were outdated that they either need a deep cleaning or they need to get new carpets. The outsides of my windows were very dirty, not sure when they last cleaned them. Some electric outlets did not work. They need new desk chairs as the one I had would slide down pretty quick with me sitting in it. It's hard to type when you are low to the ground. The bed was very comfy and it was quiet at night that I was able to sleep without any disturbances. There is free wifi. The breakfast was ok, I wished they would have had more bacon as having sausage day after day after day gets old after week 1. The orange juice tasted more like water than pure orange juice. I did say something but the OJ still did not taste like true OJ.  The parking gets packed real easy especially at night and I noticed that the Courtyard Marriott hotel next door had their guests use the Residence Inn parking lot. I know they are both Marriotts but if I am staying at a hotel I hope to find parking for my hotel. The hotel does have social hour Monday through Wednesday. They need to...I stayed at this hotel in room 303 for business September 5 to September 21, 2017. For the most part my stay was pretty good. I did notice a few things. The carpets in the hallway were outdated that they either need a deep cleaning or they need to get new carpets. The outsides of my windows were very dirty, not sure when they last cleaned them. Some electric outlets did not work. They need new desk chairs as the one I had would slide down pretty quick with me sitting in it. It's hard to type when you are low to the ground. The bed was very comfy and it was quiet at night that I was able to sleep without any disturbances. There is free wifi. The breakfast was ok, I wished they would have had more bacon as having sausage day after day after day gets old after week 1. The orange juice tasted more like water than pure orange juice. I did say something but the OJ still did not taste like true OJ.  The parking gets packed real easy especially at night and I noticed that the Courtyard Marriott hotel next door had their guests use the Residence Inn parking lot. I know they are both Marriotts but if I am staying at a hotel I hope to find parking for my hotel. The hotel does have social hour Monday through Wednesday. They need to have different food trucks, not the same one over and over so I just took advantage of the restaurants nearby. The pool and hot tub were fantastic as I had them to myself. I also noticed the hotel did not have any recycle bins as someone who recycles this was sad to see. The hotel also allows pets.  There is a gas station next door and the Antelope Mall is not that far away. There is an Aldi's up the street but there is a Von's like 10 minutes away. The hotel is right next to highway CA14 so easy access. Northrop Grumman, Lockheed Martin and Boeing are 10 minutes away. All the staff were very helpful which was very appreciative especially the housekeeping ladies.More</t>
   </si>
   <si>
+    <t>Rosanna M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r518863848-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -657,6 +717,9 @@
     <t>I have actually never stayed at this hotel, however, I did have an opportunity to ask for assistance with a personal issue we were having relating to a reservation we had in June 2017. Ms. Kristina Castro was very helpful and we would not hesitate to stay here in the future.More</t>
   </si>
   <si>
+    <t>ariz0nacats</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r512787584-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -684,6 +747,9 @@
     <t>I stayed here for a week and here are some things I found. Pros: Good Location (close to the mall, and aerospace companies)Staff friendlyCons: Really outdated and had a dirty feel (They need new furniture, carpet and paint)Limited Parking (If you leave after 7:30pm don't expect to find any parking when you come back) They also need to fix one of the exit doors that makes a very loud slam even if you try and close it gently. I wouldn't come back until they renovated the hotel. The Embassy Suites or even the TownePlace Suites in Lancaster are far nicer for the same or cheaper cost.More</t>
   </si>
   <si>
+    <t>lisad9738</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r473265362-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -711,6 +777,9 @@
     <t>Great place to stay when during a long term business trip. Evening staff very helpful. Sales personal work with my employer to get the right accommodations for my stay. Can say enough about the friendly staff. Super location to food and shopping.More</t>
   </si>
   <si>
+    <t>Luke R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r467898329-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -732,6 +801,9 @@
     <t>I stayed long term at the Residence Inn in Palmdale. The staff there is simply sublime - very friendly, efficient, and proactive. After staying here and raving about staying here, I've talked with others who stay here as their local holiday stay. People who live in the area come here to enjoy the complimentary breakfasts, complimentary Mon-Wed evening snacks, and indoor pool (for swimming any day of the year!). Highly recommend allowing yourself to get pampered at this desert jewel.More</t>
   </si>
   <si>
+    <t>jonrod1111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r452703344-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -759,6 +831,9 @@
     <t>I enjoyed my stay here and the staff was great. i had a small issue with my credit card and the staff was very patient with me while I was on the phone with the credit card company. Big spacious rooms with kitchen amenities and I almost felt like I was home! The breakfast was goodMore</t>
   </si>
   <si>
+    <t>CoolFromCal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r433817029-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -786,6 +861,9 @@
     <t>Attended an event in Lancaster. While returning late in the night Google map did confuse the directions and sent one more exist to the South.4 Adults. We stayed in a 2 bedroom suite. Really liked it. Will stay again next time around.Did not use gym or swimming pool.Morning breakfast has enough vegetarian variety and seating is spacious, did not feel crowded. They could be little more organized, among 4 days we were there, for two days the oatmeal was still being cooked, even at 9:00 A.M.More</t>
   </si>
   <si>
+    <t>Raymond A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r433239964-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -804,6 +882,9 @@
     <t>I am a corporate traveler, so i see "the norm". What made this hotel nice was the extra care that Mago gave during the breakfast. I love oatmeal, It was always fresh! One day she was making fresh smoothies which i have never seen!    There seems to always be a water shortage in california, having said that i appreciated the fact that the maid named "meche" did not utilize an entire cycle of the dish washer for 1 coffee pot, coffee cup , and some utensils! The fact that ALL maids, in all hotels have used an entire wash cycle for an item or 2, has always bothered me! I know this sounds trivial but imagine how many hotel rooms are in california use a complete dishwasher cycle everyday, in addition to the electricity, in a state that has a water and electricity shortage?? Overall a very good hotel to stay at! Everyone professional and accommodating! Rooms spacious and you don't feel like your in a hotel room!!More</t>
   </si>
   <si>
+    <t>nazonky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r427451494-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -831,6 +912,9 @@
     <t>All the staff in the hotel treat you like a family member, they know you by your name and not only like any other guest, specially the front desk personnel and the kitchen staff.The rooms are very confortable full equipped with all you need for a long stay, very clean, not only the rooms, all the hotel in general.More</t>
   </si>
   <si>
+    <t>hawaiimom03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r408498291-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -858,6 +942,9 @@
     <t>This was a quiet, family friendly, pet friendly place to stay. The outdoor sporys court was a hit with my 7 year old who always travels with a badketball. The breakfast area was bright and inviting. The bed was comfy. The kitchen with a full size fridge with an ice maker was awesome.More</t>
   </si>
   <si>
+    <t>bml570</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r404698275-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -876,6 +963,9 @@
     <t>The hotel is a quality clean, and great staff everyone is very pleasant and they ensure your comfort the whole time you are here. I would recommend this hotel to anyone. It is in a nice neighborhood with many places to eat and shop in the area it is approx. 1.5 hours from LAX airport. So when in Palmdale area stay at the residence innMore</t>
   </si>
   <si>
+    <t>daddyjohnny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r382630898-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -903,6 +993,9 @@
     <t>This facility kept up with my needs.  Ms. Margo greeted me with kindness every morning, Ms Karen kept me safe during the nights, Mr. Clarence helped me with my toiletries, Ms. Delia greeted my evenings after a hard days work, &amp; Ms. Crystal managed the place well.  Oh I can't forget, Ms. Jasmine who was a good sport all week long with my whole work crew.  I'm looking forward to my next visit, my home away from home.More</t>
   </si>
   <si>
+    <t>Pamillama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r368286651-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -930,6 +1023,9 @@
     <t>Drove a close friend to Palmdale from Vegas for an unexpected funeral.  On a tight budget and due to the circumstances, we were extended a kind and generous discount by Cystal Smith, the general manager.  Front desk staff were extremely courteous and helpful, most notably Christina.  Although our room looked a bit worn, it was very clean and everything (including free wifi) worked quite well.  And, the mattress and pillows were most comfortable, affording a good night's rest.  The location was perfect for our needs, close to shopping and restaurants aplenty.  I would definitely stay here again and recommend to others.  More</t>
   </si>
   <si>
+    <t>Water_Polo_Fan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r363352741-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -954,6 +1050,9 @@
     <t>This hotel needs to be updated to Residence Inn Marriott standards!!!Out of date appliances and broken sofa bed.Very unhappy with the condition of my room.Excellent Staff though!!!Prime location!!!Close to good restaurants!!!More</t>
   </si>
   <si>
+    <t>April S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r361768729-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -981,6 +1080,9 @@
     <t>Our stay here was great everyone treated us so well every time you came through the door everybody was smiling and greeted you and made you feel so comfortable and happy I would recommend this place to everyone the food is great the rooms are clean and nice spacious and they accepted our two dogs we will be staying here for 3 to 4 weeks couldn't have been put up in a better place thanks Marriott for everything and thank you staff you're all the best RM 117More</t>
   </si>
   <si>
+    <t>Les M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r324139642-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1008,6 +1110,9 @@
     <t>Stress free overnight stay. For Palmdale, this is upscale and reasonably priced. This Residence Inn has a great location near several restaurants and Numero Uno Pizza. Quick and easy check in. I unfortunately forgot my swim suit but a peek at the pool revealed a nice indoor pool that I really wanted to dive into. The facilities are clean and the staff was great. No problems with the room. The Front Desk is friendly and responsive. Desk provided advice on local restaurants which really helped.More</t>
   </si>
   <si>
+    <t>Elias A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r314524832-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1032,6 +1137,9 @@
     <t>I stayed at this location for about 4 months. The staff is fantastic willing to accommodate any needs that you may have they serve breakfast every morning which is amazing. Dinner is served Monday Tuesday and Wednesday which is also pretty good overall I had a fantastic stay the location is perfect it's only 3 hour drive from Las Vegas an hour or so north of Los Angeles and a good six hour drive to San Francisco. There are also plenty of restaurants nearby if you need to stop and eat the staff is very knowledgeable about the area and will be more than willing to provide you any information needed. This will be a good stop for an extended stay.More</t>
   </si>
   <si>
+    <t>andynaija</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r304524465-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1053,6 +1161,9 @@
     <t>We stayed here for 2 nights in a 2 bed suite with kitchen facilities. The rooms were clean and the free breakfast was the typical residence inn spread. I tried to use the free PC to print some museum tickets but the PC broke down, the manager Crystal kindly offered to help me print it with her office printer, all the other members of staff were just as helpful which reflects her good customer service focused leadershipMore</t>
   </si>
   <si>
+    <t>frog09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r290874536-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1077,6 +1188,9 @@
     <t>This hotel for the most part was very good.  They do have a very good breakfast.  The rooms are ample and it was good to have the stove, micro and refrigerator.  There were several of the family stayed there while attending a wedding in that area.More</t>
   </si>
   <si>
+    <t>Travelingbear1000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r286916503-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1104,6 +1218,9 @@
     <t>While this hotel is in no way high end, the staff was incredibly kind and always tried to help out. It is very convenient to many Palmdale and Lancaster locations. I cannot say enough good things about the staff from the front desk to the people cleaning the rooms. More</t>
   </si>
   <si>
+    <t>Pickyandproudofit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r284499376-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1131,6 +1248,9 @@
     <t>We have stayed in quite a few Residence Inns.  We like the larger-sized rooms.  This one was very middle-of-the-road, with nothing terribly wrong but nothing outstanding as well.  Our room was clean but some dishes were missing and the cupboards need to be replaced.  The bed was fine, but the fitted bed pad and sheet kept popping off like they had shrunk, and I DON'T like to fight with my bed.  Room service kept our room tidy and did a good job.  Breakfast was typical...I was really ready to eat elsewhere after three days.  More variety would be nice.  But the food was hot and they kept the area clean.  We did not go into the pool or get to enjoy the afternoon snacks.  The staff was polite and friendly in every instance.More</t>
   </si>
   <si>
+    <t>almondcookies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r245029687-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1158,6 +1278,9 @@
     <t>We stay here once a year when we visit our children.  We live in Florida and feel so comfortable at this hotel. Everything you need is here including a great laundry.  I wish I could remember the lady's name in the breakfast room because she was so nice and her breakfast burritos were the best.  Every breakfast was so delicious. Miss you Residence Inn.  Loved staying there. So Homey and the Christmas decorations were lovely.More</t>
   </si>
   <si>
+    <t>H H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r222183678-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1182,6 +1305,9 @@
     <t>I arrived at 7pm and the front desk reception told me that I did call to cancel my reservation which I didn't.   This wasn't the first time Marriot hotels chain do this to me. Because the hotel overbooked and they can cancel any reservation any time they want. It's unacceptable to me. I will never ever make reservation with Residence Inn and Marriott hotels whenever I travel.More</t>
   </si>
   <si>
+    <t>dazzll</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r215843352-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1201,6 +1327,9 @@
   </si>
   <si>
     <t>Did not stay in the hotel but the Place is really nice and Brand new.Can not rate the rooms - the people were very nice.The seminar rating would not reflect the NICE hotel so I'll just say I would gladly stay there.The furnishings are top notch. I  gave it a 5 star but since I did not stay in a roomJust from the lobby and meeting roomMore</t>
+  </si>
+  <si>
+    <t>OhioHick</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r194054436-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
@@ -1234,6 +1363,9 @@
 I was very pleased with the room.  As mentioned, it was a two-bedroom suite with a living room and kitchenette connecting the bedrooms.  There were two bathrooms as well, so it would have been very easy to share the space with another person.  The suite was well appointed (all the normal amenities plus the kitchen seemed to have everything you would need for a long stay).  There was a flat screen TV in each space (each bedroom and the living area).  The bathrooms were a nice size; plenty...I stayed two nights at the Residence Inn by Marriott in Palmdale while on business to the area.  It was convenient to shopping and dining options and right off the main road, although it was still a bit of a haul to get to NASA Dryden, I mean, Armstrong Flight Research Center (but then, any hotel is going to be a haul to get there!).I thought the Residence was a good choice.  Clean and comfortable, which are the most important items for me.  The lobby area is very nice.  Check in was quick ad easy.  The staff at the desk was friendly and helpful.  Funny story is that the gentlemen taking care of the check-in was very happy to give me an upgrade to a two-bedroom suite.  "Dude, I'm by myself, why do I need two bedrooms!"  But it was a nice room regardless that is was more than I needed.I was very pleased with the room.  As mentioned, it was a two-bedroom suite with a living room and kitchenette connecting the bedrooms.  There were two bathrooms as well, so it would have been very easy to share the space with another person.  The suite was well appointed (all the normal amenities plus the kitchen seemed to have everything you would need for a long stay).  There was a flat screen TV in each space (each bedroom and the living area).  The bathrooms were a nice size; plenty of room to move about.  There was also free wifi in the room, which is vital these days.The only issue during the stay was that there was a fair amount of noise from the rooms above me during the early evening.  Fortunately, I was exhausted and was able to sleep through the disturbance.  But it could be annoying for others.I took advantage of the fitness center at the hotel.  It is small with two treadmills, one elliptical machine and a reclining bike.  One of the treadmills was out of order during my stay, but fortunately for me I was up really early and able to meet the rush.  There was not a business center (not that I was looking for one) but I did see a computer in the lobby for printing boarding passes.The complimentary breakfast was good.  Not an extensive variety, but enough to start your day.  I also tried the evening social on our first night; the meatball subs were very good.Overall, it was a good stay.  I will certainly consider staying at the Residence Inn should my travels bring me back to the Palmdale area.More</t>
   </si>
   <si>
+    <t>Beadge</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r185330924-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1258,6 +1390,9 @@
     <t>I was on assignment working the late shift and slalom during the day. I let the staff know I didn't want any service before 2pm and they complied. the rooms are nice and dark and mostly quiet. sometimes a military jet flies over which can be loud but only during the day. the shower is powerful and has a massage setting. the kitchen has all you need and there are plenty of stores near by to stock up on groceries. Good wireless Internet, hdtv reception, no oders, comfy bed. The only downside is the lack of parking when coming back early in the morning at the end of my shift. most nights I got a spot but one night I had to park at the hotel next door.More</t>
   </si>
   <si>
+    <t>M W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r182365919-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1285,6 +1420,9 @@
     <t>I've never been letdown by a Residence Inn, and this one is no different.  I stayed for 8 days and felt as much at home as possible from any major hotel chain that I've stayed at (except for the very high-end hotels).  Rooms were large and well-maintained, staff was extremely friendly and accommodating, breakfasts and weekday hor d'oeuvres were TERRIFIC, pool/hot tub were top-notch, and location was great (as far as restaurants, supermarkets, and evening entertainment were concerned).  Trying to think of anything negative...nope - great stay!!More</t>
   </si>
   <si>
+    <t>Chris E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r151137124-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1312,6 +1450,9 @@
     <t>My family and I stayed at Residence Inn for 5 months due to a flood in our house.  I actually didn't mind staying there under the circumstances.  All the staff was great and the food was wonderful.  I especially never tired of the awesome breakfast; some of my favorites were the waffles, breakfast burritos, egg mcmuffins, and the blueberry yogurt.  The kitchen staff is the best, and they will do everything they can to make you happy.  The front desk staff will also do everything to accommodate you, and they were simply awesome.  There is a nice basketball court outside and pool inside.  It is located right in the middle of many restaurants and strip malls.  There is even a Hometown Buffet right behind it.  It is very accessible to the freeway (1/2 block away).  Thanks Moises and my money is on the 49ers for the Super Bowl....ChrisMore</t>
   </si>
   <si>
+    <t>momandt1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r147093850-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1336,6 +1477,9 @@
     <t>This residence inn is not fancy like the ones in big cities. But, I wouldn't stay anywhere else if given the choice. The entire staff is friendly, always greeting me with a smile in the morning and again in the evening. Most marriott staff are friendly and professional, but the palmdale staff (housekeeping, front desk, food services) go above and beyond.More</t>
   </si>
   <si>
+    <t>marikesh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r145849014-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1363,6 +1507,9 @@
     <t>Waiting for our short sale to finish, we had to find a place to stay that would cater to pets and be comfortable and affordable. Wow! What a great motel! The staff was super friendly, professional, and helpful. The housekeeping staff was awesome! The motel is close to the mall and lots of shopping, yet tucked away where it's very quiet. There is a well-kept area that you can take your dog outside with clean-up supplies. The kitchenette is very functional. Loved our stay!More</t>
   </si>
   <si>
+    <t>dkuhlman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r103646617-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1390,6 +1537,9 @@
     <t>The room was actually a suite, or at least a single large room with a kitchen.  The hotel was pleasant. The staff was helpful.  The complimentary breakfast included hot foods, and was quite enjoyable.More</t>
   </si>
   <si>
+    <t>pap1973</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r73070886-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1411,6 +1561,9 @@
     <t>Great staff, comfortable rooms, pet friendly, great hot buffet breakfasts and clean pool and whirlpool spa.More</t>
   </si>
   <si>
+    <t>MariaL26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r69039167-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1432,6 +1585,9 @@
     <t>Stuck there due to snow.  Treated us great! Hotel was clean, comfortable, helpful, I'd stay there again!More</t>
   </si>
   <si>
+    <t>Intrepid_traveler66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r16264641-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1453,6 +1609,9 @@
     <t>I booked a week at the Residence Inn because it was close to work.  Also, the reviews were very favorable.  The first day, I returned to my room 20 minutes before the cleaning crew went home only to find that it had not been serviced.  I was gone for over 10 hours; all I wanted was to kick off my shoes and relax but I could not.  I called the front desk &amp; they said they would take care of it.  I spent 30 minutes in the lobby waiting to get back into my room.  During the wait, I visited Happy Hour in the lobby which was high fat, full sugar.  I was surprised that there were no diet sodas included with the Coke and Sprite.  After some celery sticks I returned to my room which was finally made and attempted to get on to my computer to work.  The advertised wireless was not working so I called Tech Support who spent 45 minutes asking me was the computer on, was the power saver on, was it plugged into the wall, and lots more irrelevant questions that had nothing to do with accessing the wireless network.  I finally got off the phone &amp; called the front desk.  They had all the access points reinitialized so I turn off my computer &amp; turned it back on to try again.  After another 15 minutes, I gave up and asked the front desk...I booked a week at the Residence Inn because it was close to work.  Also, the reviews were very favorable.  The first day, I returned to my room 20 minutes before the cleaning crew went home only to find that it had not been serviced.  I was gone for over 10 hours; all I wanted was to kick off my shoes and relax but I could not.  I called the front desk &amp; they said they would take care of it.  I spent 30 minutes in the lobby waiting to get back into my room.  During the wait, I visited Happy Hour in the lobby which was high fat, full sugar.  I was surprised that there were no diet sodas included with the Coke and Sprite.  After some celery sticks I returned to my room which was finally made and attempted to get on to my computer to work.  The advertised wireless was not working so I called Tech Support who spent 45 minutes asking me was the computer on, was the power saver on, was it plugged into the wall, and lots more irrelevant questions that had nothing to do with accessing the wireless network.  I finally got off the phone &amp; called the front desk.  They had all the access points reinitialized so I turn off my computer &amp; turned it back on to try again.  After another 15 minutes, I gave up and asked the front desk for an Ethernet connection.  Wireless does NOT work in the hotel but they will supply the bridge for the Ethernet.  Although the front desk was friendly, the service was lacking.  Breakfast is so so.  Happy Hour abysmal and the workout area is standard hotel.  I will not return here if at all possible.  I found much better service, working wireless, better breakfast &amp; Happy Hour at the Holiday Inn on Palmdale Blvd.  Although the room is half the size with only a small frig, the food is much better at the Holiday Inn; there’s room service and they have a complimentary membership at 24 Hour Fitness if you want more than the hotel's workout area.  VERY VERY disappointed!  Makes me wonder if I want to continue with my Marriott Rewards Program.More</t>
   </si>
   <si>
+    <t>LLouise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r14375617-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
   </si>
   <si>
@@ -1472,6 +1631,9 @@
   </si>
   <si>
     <t>We booked a one night stay at the Residence Inn in Palmdale.   We were greeted by friendly and efficient staff the minute we walked in the door.  We had asked for a quiet location and they made sure that we got such a room and even upgraded us from a one bedroom suite to a two bedroom suite.  Our room was quiet.  Foam pillows were on the bed, just as requested.   The complimentary breakfast the next morning was good and the staff kept the food well stocked.   We will definitely stay here again on our next trip to Palmdale.More</t>
+  </si>
+  <si>
+    <t>Driver09</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d223966-r7010600-Residence_Inn_Palmdale_Lancaster-Palmdale_California.html</t>
@@ -1997,43 +2159,47 @@
       <c r="A2" t="n">
         <v>41641</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2051,56 +2217,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41641</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2116,56 +2286,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41641</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2181,56 +2355,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41641</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2242,56 +2420,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41641</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2309,56 +2491,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41641</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2376,56 +2562,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41641</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2437,56 +2627,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41641</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2504,56 +2698,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41641</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2571,56 +2769,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41641</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2636,56 +2838,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41641</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2703,56 +2909,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41641</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O13" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2770,56 +2980,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41641</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2831,56 +3045,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41641</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2892,56 +3110,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41641</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2959,56 +3181,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="X16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41641</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3026,56 +3252,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41641</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J18" t="s">
+        <v>198</v>
+      </c>
+      <c r="K18" t="s">
+        <v>199</v>
+      </c>
+      <c r="L18" t="s">
+        <v>200</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>181</v>
       </c>
-      <c r="K18" t="s">
-        <v>182</v>
-      </c>
-      <c r="L18" t="s">
-        <v>183</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>166</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3087,56 +3317,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="X18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41641</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3154,56 +3388,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41641</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3221,56 +3459,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41641</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O21" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3282,56 +3524,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41641</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3349,56 +3595,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="X22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="Y22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41641</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>243</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3416,56 +3666,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="X23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="Y23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41641</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="J24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="K24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3481,56 +3735,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="X24" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41641</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3546,56 +3804,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="X25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41641</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O26" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3613,56 +3875,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="X26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="Y26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41641</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>281</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="K27" t="s">
+        <v>285</v>
+      </c>
+      <c r="L27" t="s">
+        <v>286</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>259</v>
       </c>
-      <c r="L27" t="s">
-        <v>260</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>236</v>
-      </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3680,56 +3946,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="X27" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="Y27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41641</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3747,56 +4017,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="X28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41641</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>298</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="J29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="L29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="O29" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3808,56 +4082,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="X29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41641</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>308</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="J30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3873,56 +4151,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="X30" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Y30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41641</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>315</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3938,56 +4220,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="X31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="Y31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41641</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>325</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="J32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="K32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="L32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="O32" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3999,56 +4285,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="X32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="Y32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41641</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>335</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="J33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="K33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="L33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="O33" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4064,56 +4354,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="X33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="Y33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41641</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>344</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="J34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="K34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="L34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="O34" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4131,56 +4425,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="X34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="Y34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41641</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>354</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="J35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="K35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="L35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4196,56 +4494,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="X35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="Y35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41641</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>364</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="J36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="O36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4257,56 +4559,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="X36" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="Y36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41641</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>373</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="J37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="K37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="L37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="O37" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4324,56 +4630,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="X37" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="Y37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41641</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>381</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="J38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="O38" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4391,56 +4701,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="X38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="Y38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41641</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>390</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="J39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="L39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4452,56 +4766,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="X39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="Y39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41641</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>400</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="J40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="K40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="L40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="O40" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4519,56 +4837,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="X40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="Y40" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41641</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>410</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="J41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="K41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="L41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="O41" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4586,47 +4908,51 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="X41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="Y41" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41641</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>420</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="J42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="K42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="L42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
@@ -4653,56 +4979,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="X42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="Y42" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41641</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>429</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="J43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="K43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="L43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4716,56 +5046,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="X43" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="Y43" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41641</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>437</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="J44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="K44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="L44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4787,47 +5121,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="X44" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="Y44" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41641</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>447</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="J45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="K45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="L45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
@@ -4854,56 +5192,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="X45" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="Y45" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41641</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>456</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="J46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="K46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="L46" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4915,56 +5257,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="X46" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="Y46" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>41641</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>466</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="J47" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="K47" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="L47" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="O47" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4986,47 +5332,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="X47" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="Y47" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>41641</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>476</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="J48" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="K48" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="L48" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -5053,56 +5403,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="X48" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="Y48" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>41641</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>485</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="J49" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="K49" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="L49" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="O49" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5124,56 +5478,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="X49" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="Y49" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>41641</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>495</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="J50" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="K50" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="L50" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="O50" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5195,56 +5553,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="X50" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="Y50" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>41641</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>505</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="J51" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="K51" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="L51" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="O51" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5266,56 +5628,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="X51" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="Y51" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>41641</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>513</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="J52" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="K52" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="L52" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="O52" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5327,56 +5693,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="X52" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="Y52" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>41641</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>521</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="J53" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="K53" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="L53" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5398,56 +5768,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="X53" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="Y53" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>41641</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>529</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="J54" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="K54" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="L54" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="O54" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5469,56 +5843,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="X54" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="Y54" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>41641</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>537</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="J55" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="K55" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="L55" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5540,13 +5918,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="X55" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="Y55" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
